--- a/excel_templates/ipa.xlsx
+++ b/excel_templates/ipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C54E3-7573-4339-9788-F338C58874DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2879D-2D07-4FE7-8DB7-1580E1FE2F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,13 +1620,13 @@
     <t>Effective 1/10/2022</t>
   </si>
   <si>
-    <t>Zone List - 2022</t>
-  </si>
-  <si>
     <t>asdf - 2022</t>
   </si>
   <si>
     <t>2023 Rate Calculator</t>
+  </si>
+  <si>
+    <t>Zone List - 2023</t>
   </si>
 </sst>
 </file>
@@ -2132,6 +2132,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2140,16 +2148,8 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2635,7 +2635,7 @@
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -2784,7 +2784,7 @@
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -2793,13 +2793,13 @@
       <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="60" t="str">
         <f>LEFT('IPA Pack'!B7:E7,LEN('IPA Pack'!B7:E7)-7)</f>
         <v>asdf</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="49" t="s">
         <v>470</v>
       </c>
@@ -2828,15 +2828,15 @@
       <c r="B10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61" t="str">
+      <c r="D10" s="61"/>
+      <c r="E10" s="57" t="str">
         <f>'IPA Pack'!D10</f>
         <v>Packet Format</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="55" t="s">
         <v>471</v>
       </c>
@@ -2858,10 +2858,10 @@
       <c r="B12" s="37">
         <v>1</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="32">
         <f>'IPA Pack'!D12</f>
         <v>0</v>
@@ -2884,10 +2884,10 @@
       <c r="B13" s="39">
         <v>2</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="41">
         <f>'IPA Pack'!D13</f>
         <v>0</v>
@@ -2910,10 +2910,10 @@
       <c r="B14" s="37">
         <v>3</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="32">
         <f>'IPA Pack'!D14</f>
         <v>0</v>
@@ -2936,10 +2936,10 @@
       <c r="B15" s="39">
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="41">
         <f>'IPA Pack'!D15</f>
         <v>0</v>
@@ -2962,10 +2962,10 @@
       <c r="B16" s="37">
         <v>5</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="32">
         <f>'IPA Pack'!D16</f>
         <v>0</v>
@@ -2988,10 +2988,10 @@
       <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="41">
         <f>'IPA Pack'!D17</f>
         <v>0</v>
@@ -3014,10 +3014,10 @@
       <c r="B18" s="37">
         <v>7</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="32">
         <f>'IPA Pack'!D18</f>
         <v>0</v>
@@ -3040,10 +3040,10 @@
       <c r="B19" s="39">
         <v>8</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="41">
         <f>'IPA Pack'!D19</f>
         <v>0</v>
@@ -3066,10 +3066,10 @@
       <c r="B20" s="37">
         <v>9</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="32">
         <f>'IPA Pack'!D20</f>
         <v>0</v>
@@ -3092,10 +3092,10 @@
       <c r="B21" s="39">
         <v>10</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="41">
         <f>'IPA Pack'!D21</f>
         <v>0</v>
@@ -3118,10 +3118,10 @@
       <c r="B22" s="37">
         <v>11</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="32">
         <f>'IPA Pack'!D22</f>
         <v>0</v>
@@ -3144,10 +3144,10 @@
       <c r="B23" s="39">
         <v>12</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="41">
         <f>'IPA Pack'!D23</f>
         <v>0</v>
@@ -3170,10 +3170,10 @@
       <c r="B24" s="37">
         <v>13</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="32">
         <f>'IPA Pack'!D24</f>
         <v>0</v>
@@ -3196,10 +3196,10 @@
       <c r="B25" s="39">
         <v>14</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="41">
         <f>'IPA Pack'!D25</f>
         <v>0</v>
@@ -3222,10 +3222,10 @@
       <c r="B26" s="37">
         <v>15</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="32">
         <f>'IPA Pack'!D26</f>
         <v>0</v>
@@ -3248,10 +3248,10 @@
       <c r="B27" s="39">
         <v>16</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="41">
         <f>'IPA Pack'!D27</f>
         <v>0</v>
@@ -3274,10 +3274,10 @@
       <c r="B28" s="37">
         <v>17</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="32">
         <f>'IPA Pack'!D28</f>
         <v>0</v>
@@ -3300,10 +3300,10 @@
       <c r="B29" s="39">
         <v>18</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="41">
         <f>'IPA Pack'!D29</f>
         <v>0</v>
@@ -3326,10 +3326,10 @@
       <c r="B30" s="37">
         <v>19</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="32">
         <f>'IPA Pack'!D30</f>
         <v>0</v>
@@ -3352,10 +3352,10 @@
       <c r="B31" s="39">
         <v>20</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="41">
         <f>'IPA Pack'!D31</f>
         <v>0</v>
@@ -3397,6 +3397,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7bieniTZfab+vFEbPKEB1dstY0Jfn4FFYGN9FWSDgpJSKCUm5M+B7lFgqUjx23fs+sAagIEzn2OcaSrhSBm0QA==" saltValue="TQXvlkrDIIQZxr9MJKhtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:F10"/>
@@ -3413,18 +3425,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3473,7 +3473,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>

--- a/excel_templates/ipa.xlsx
+++ b/excel_templates/ipa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2879D-2D07-4FE7-8DB7-1580E1FE2F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281AF86-1E86-4E7E-AAA7-9B7E417C9397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1617,9 +1617,6 @@
     <t>Middle East &amp; Asia Z2</t>
   </si>
   <si>
-    <t>Effective 1/10/2022</t>
-  </si>
-  <si>
     <t>asdf - 2022</t>
   </si>
   <si>
@@ -1627,6 +1624,9 @@
   </si>
   <si>
     <t>Zone List - 2023</t>
+  </si>
+  <si>
+    <t>Effective 1/22/2023</t>
   </si>
 </sst>
 </file>
@@ -2132,14 +2132,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2148,8 +2140,16 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2635,7 +2635,7 @@
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
@@ -2749,7 +2749,7 @@
   </sheetPr>
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2784,7 +2784,7 @@
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -2793,13 +2793,13 @@
       <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="58" t="str">
         <f>LEFT('IPA Pack'!B7:E7,LEN('IPA Pack'!B7:E7)-7)</f>
         <v>asdf</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="49" t="s">
         <v>470</v>
       </c>
@@ -2828,15 +2828,15 @@
       <c r="B10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="57" t="str">
+      <c r="D10" s="60"/>
+      <c r="E10" s="61" t="str">
         <f>'IPA Pack'!D10</f>
         <v>Packet Format</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="55" t="s">
         <v>471</v>
       </c>
@@ -2858,10 +2858,10 @@
       <c r="B12" s="37">
         <v>1</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="32">
         <f>'IPA Pack'!D12</f>
         <v>0</v>
@@ -2884,10 +2884,10 @@
       <c r="B13" s="39">
         <v>2</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="41">
         <f>'IPA Pack'!D13</f>
         <v>0</v>
@@ -2910,10 +2910,10 @@
       <c r="B14" s="37">
         <v>3</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="32">
         <f>'IPA Pack'!D14</f>
         <v>0</v>
@@ -2936,10 +2936,10 @@
       <c r="B15" s="39">
         <v>4</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="41">
         <f>'IPA Pack'!D15</f>
         <v>0</v>
@@ -2962,10 +2962,10 @@
       <c r="B16" s="37">
         <v>5</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="32">
         <f>'IPA Pack'!D16</f>
         <v>0</v>
@@ -2988,10 +2988,10 @@
       <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="41">
         <f>'IPA Pack'!D17</f>
         <v>0</v>
@@ -3014,10 +3014,10 @@
       <c r="B18" s="37">
         <v>7</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="32">
         <f>'IPA Pack'!D18</f>
         <v>0</v>
@@ -3040,10 +3040,10 @@
       <c r="B19" s="39">
         <v>8</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="41">
         <f>'IPA Pack'!D19</f>
         <v>0</v>
@@ -3066,10 +3066,10 @@
       <c r="B20" s="37">
         <v>9</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="32">
         <f>'IPA Pack'!D20</f>
         <v>0</v>
@@ -3092,10 +3092,10 @@
       <c r="B21" s="39">
         <v>10</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="41">
         <f>'IPA Pack'!D21</f>
         <v>0</v>
@@ -3118,10 +3118,10 @@
       <c r="B22" s="37">
         <v>11</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="32">
         <f>'IPA Pack'!D22</f>
         <v>0</v>
@@ -3144,10 +3144,10 @@
       <c r="B23" s="39">
         <v>12</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="41">
         <f>'IPA Pack'!D23</f>
         <v>0</v>
@@ -3170,10 +3170,10 @@
       <c r="B24" s="37">
         <v>13</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="32">
         <f>'IPA Pack'!D24</f>
         <v>0</v>
@@ -3196,10 +3196,10 @@
       <c r="B25" s="39">
         <v>14</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="41">
         <f>'IPA Pack'!D25</f>
         <v>0</v>
@@ -3222,10 +3222,10 @@
       <c r="B26" s="37">
         <v>15</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="32">
         <f>'IPA Pack'!D26</f>
         <v>0</v>
@@ -3248,10 +3248,10 @@
       <c r="B27" s="39">
         <v>16</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="41">
         <f>'IPA Pack'!D27</f>
         <v>0</v>
@@ -3274,10 +3274,10 @@
       <c r="B28" s="37">
         <v>17</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="32">
         <f>'IPA Pack'!D28</f>
         <v>0</v>
@@ -3300,10 +3300,10 @@
       <c r="B29" s="39">
         <v>18</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="58"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="41">
         <f>'IPA Pack'!D29</f>
         <v>0</v>
@@ -3326,10 +3326,10 @@
       <c r="B30" s="37">
         <v>19</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="32">
         <f>'IPA Pack'!D30</f>
         <v>0</v>
@@ -3352,10 +3352,10 @@
       <c r="B31" s="39">
         <v>20</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="41">
         <f>'IPA Pack'!D31</f>
         <v>0</v>
@@ -3397,18 +3397,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7bieniTZfab+vFEbPKEB1dstY0Jfn4FFYGN9FWSDgpJSKCUm5M+B7lFgqUjx23fs+sAagIEzn2OcaSrhSBm0QA==" saltValue="TQXvlkrDIIQZxr9MJKhtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:F10"/>
@@ -3425,6 +3413,18 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -3451,7 +3451,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -3473,7 +3473,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>

--- a/excel_templates/ipa.xlsx
+++ b/excel_templates/ipa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281AF86-1E86-4E7E-AAA7-9B7E417C9397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736720D-FF71-42D1-80EB-E40D45EC9A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Pack" sheetId="16" r:id="rId1"/>
@@ -2132,6 +2132,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2140,16 +2148,8 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2161,13 +2161,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="CountryEven" xfId="4" xr:uid="{5E39F42A-9066-4558-8B48-CAE89DC46500}"/>
-    <cellStyle name="CountryOdd" xfId="3" xr:uid="{42AB6E81-C2B8-4EFC-BDAC-6D989C042E1B}"/>
+    <cellStyle name="CountryEven" xfId="3" xr:uid="{42AB6E81-C2B8-4EFC-BDAC-6D989C042E1B}"/>
+    <cellStyle name="CountryOdd" xfId="4" xr:uid="{5E39F42A-9066-4558-8B48-CAE89DC46500}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="RateEven" xfId="6" xr:uid="{85D8C55F-37A8-490E-BF6B-9AB05ADEF7EF}"/>
-    <cellStyle name="RateOdd" xfId="5" xr:uid="{53FEA31C-5797-4849-8041-DD56A6156394}"/>
-    <cellStyle name="ZoneEven" xfId="2" xr:uid="{3A795BB4-37C5-4C8D-8A45-74FC11B73543}"/>
-    <cellStyle name="ZoneOdd" xfId="1" xr:uid="{D1750CB3-3306-4D4D-956A-80020E12843F}"/>
+    <cellStyle name="RateEven" xfId="5" xr:uid="{53FEA31C-5797-4849-8041-DD56A6156394}"/>
+    <cellStyle name="RateOdd" xfId="6" xr:uid="{85D8C55F-37A8-490E-BF6B-9AB05ADEF7EF}"/>
+    <cellStyle name="ZoneEven" xfId="1" xr:uid="{D1750CB3-3306-4D4D-956A-80020E12843F}"/>
+    <cellStyle name="ZoneOdd" xfId="2" xr:uid="{3A795BB4-37C5-4C8D-8A45-74FC11B73543}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2793,13 +2793,13 @@
       <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="60" t="str">
         <f>LEFT('IPA Pack'!B7:E7,LEN('IPA Pack'!B7:E7)-7)</f>
         <v>asdf</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="49" t="s">
         <v>470</v>
       </c>
@@ -2828,15 +2828,15 @@
       <c r="B10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61" t="str">
+      <c r="D10" s="61"/>
+      <c r="E10" s="57" t="str">
         <f>'IPA Pack'!D10</f>
         <v>Packet Format</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="55" t="s">
         <v>471</v>
       </c>
@@ -2858,10 +2858,10 @@
       <c r="B12" s="37">
         <v>1</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="32">
         <f>'IPA Pack'!D12</f>
         <v>0</v>
@@ -2884,10 +2884,10 @@
       <c r="B13" s="39">
         <v>2</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="41">
         <f>'IPA Pack'!D13</f>
         <v>0</v>
@@ -2910,10 +2910,10 @@
       <c r="B14" s="37">
         <v>3</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="32">
         <f>'IPA Pack'!D14</f>
         <v>0</v>
@@ -2936,10 +2936,10 @@
       <c r="B15" s="39">
         <v>4</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="41">
         <f>'IPA Pack'!D15</f>
         <v>0</v>
@@ -2962,10 +2962,10 @@
       <c r="B16" s="37">
         <v>5</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="32">
         <f>'IPA Pack'!D16</f>
         <v>0</v>
@@ -2988,10 +2988,10 @@
       <c r="B17" s="39">
         <v>6</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="41">
         <f>'IPA Pack'!D17</f>
         <v>0</v>
@@ -3014,10 +3014,10 @@
       <c r="B18" s="37">
         <v>7</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="32">
         <f>'IPA Pack'!D18</f>
         <v>0</v>
@@ -3040,10 +3040,10 @@
       <c r="B19" s="39">
         <v>8</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="41">
         <f>'IPA Pack'!D19</f>
         <v>0</v>
@@ -3066,10 +3066,10 @@
       <c r="B20" s="37">
         <v>9</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="32">
         <f>'IPA Pack'!D20</f>
         <v>0</v>
@@ -3092,10 +3092,10 @@
       <c r="B21" s="39">
         <v>10</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="41">
         <f>'IPA Pack'!D21</f>
         <v>0</v>
@@ -3118,10 +3118,10 @@
       <c r="B22" s="37">
         <v>11</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="32">
         <f>'IPA Pack'!D22</f>
         <v>0</v>
@@ -3144,10 +3144,10 @@
       <c r="B23" s="39">
         <v>12</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="41">
         <f>'IPA Pack'!D23</f>
         <v>0</v>
@@ -3170,10 +3170,10 @@
       <c r="B24" s="37">
         <v>13</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="32">
         <f>'IPA Pack'!D24</f>
         <v>0</v>
@@ -3196,10 +3196,10 @@
       <c r="B25" s="39">
         <v>14</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="41">
         <f>'IPA Pack'!D25</f>
         <v>0</v>
@@ -3222,10 +3222,10 @@
       <c r="B26" s="37">
         <v>15</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="32">
         <f>'IPA Pack'!D26</f>
         <v>0</v>
@@ -3248,10 +3248,10 @@
       <c r="B27" s="39">
         <v>16</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="41">
         <f>'IPA Pack'!D27</f>
         <v>0</v>
@@ -3274,10 +3274,10 @@
       <c r="B28" s="37">
         <v>17</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="32">
         <f>'IPA Pack'!D28</f>
         <v>0</v>
@@ -3300,10 +3300,10 @@
       <c r="B29" s="39">
         <v>18</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="41">
         <f>'IPA Pack'!D29</f>
         <v>0</v>
@@ -3326,10 +3326,10 @@
       <c r="B30" s="37">
         <v>19</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="32">
         <f>'IPA Pack'!D30</f>
         <v>0</v>
@@ -3352,10 +3352,10 @@
       <c r="B31" s="39">
         <v>20</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="41">
         <f>'IPA Pack'!D31</f>
         <v>0</v>
@@ -3397,6 +3397,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7bieniTZfab+vFEbPKEB1dstY0Jfn4FFYGN9FWSDgpJSKCUm5M+B7lFgqUjx23fs+sAagIEzn2OcaSrhSBm0QA==" saltValue="TQXvlkrDIIQZxr9MJKhtJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:F10"/>
@@ -3413,18 +3425,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{00000000-0002-0000-0100-000000000000}">
